--- a/SystemCode/IRS_Project/DataExploration/Coffee dataset.xlsx
+++ b/SystemCode/IRS_Project/DataExploration/Coffee dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/IRS_Project/DataExploration/Filter with Cosine Sim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\IRS-PM-2023-01-28-BrainBrew-Coffee_Recommender\SystemCode\IRS_Project\DataExploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183B6231-7284-EE44-B662-46EA30DA1BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAE36DF-E428-4B36-A731-03EBA0C8C64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="232">
   <si>
     <t>Name</t>
   </si>
@@ -595,12 +595,6 @@
     <t>filter,morning</t>
   </si>
   <si>
-    <t>Espresso &amp; Filter,afternoon,evening, anytime</t>
-  </si>
-  <si>
-    <t>Espresso, afternoon,evening,anytime</t>
-  </si>
-  <si>
     <t>morning, afternoon, anytime</t>
   </si>
   <si>
@@ -716,6 +710,15 @@
   </si>
   <si>
     <t>morning, anytime</t>
+  </si>
+  <si>
+    <t>Espresso &amp; Filter,afternoon,, anytime</t>
+  </si>
+  <si>
+    <t>Espresso, afternoon,,anytime</t>
+  </si>
+  <si>
+    <t>Espresso &amp; Filter,afternoon, anytime</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1119,20 +1122,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.1796875" customWidth="1"/>
+    <col min="11" max="11" width="52.54296875" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1202,16 +1206,16 @@
         <v>185</v>
       </c>
       <c r="K2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1240,16 +1244,16 @@
         <v>185</v>
       </c>
       <c r="K3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1278,16 +1282,16 @@
         <v>185</v>
       </c>
       <c r="K4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1316,16 +1320,16 @@
         <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1354,16 +1358,16 @@
         <v>186</v>
       </c>
       <c r="K6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1392,16 +1396,16 @@
         <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1430,16 +1434,16 @@
         <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1468,16 +1472,16 @@
         <v>188</v>
       </c>
       <c r="K9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1506,16 +1510,16 @@
         <v>189</v>
       </c>
       <c r="K10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1541,19 +1545,19 @@
         <v>21</v>
       </c>
       <c r="J11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" t="s">
         <v>190</v>
       </c>
-      <c r="K11" t="s">
-        <v>192</v>
-      </c>
       <c r="L11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1582,16 +1586,16 @@
         <v>188</v>
       </c>
       <c r="K12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1617,19 +1621,19 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" t="s">
         <v>190</v>
       </c>
-      <c r="K13" t="s">
-        <v>192</v>
-      </c>
       <c r="L13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1655,19 +1659,19 @@
         <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="K14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1696,16 +1700,16 @@
         <v>185</v>
       </c>
       <c r="K15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1734,16 +1738,16 @@
         <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1772,16 +1776,16 @@
         <v>185</v>
       </c>
       <c r="K17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1807,19 +1811,19 @@
         <v>21</v>
       </c>
       <c r="J18" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" t="s">
         <v>190</v>
       </c>
-      <c r="K18" t="s">
-        <v>192</v>
-      </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1848,16 +1852,16 @@
         <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1886,16 +1890,16 @@
         <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1924,16 +1928,16 @@
         <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1962,16 +1966,16 @@
         <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2000,16 +2004,16 @@
         <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2035,19 +2039,19 @@
         <v>21</v>
       </c>
       <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
         <v>190</v>
       </c>
-      <c r="K24" t="s">
-        <v>192</v>
-      </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2073,19 +2077,19 @@
         <v>21</v>
       </c>
       <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
         <v>190</v>
       </c>
-      <c r="K25" t="s">
-        <v>192</v>
-      </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2114,16 +2118,16 @@
         <v>185</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2149,19 +2153,19 @@
         <v>22</v>
       </c>
       <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
         <v>190</v>
       </c>
-      <c r="K27" t="s">
-        <v>192</v>
-      </c>
       <c r="L27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2187,19 +2191,19 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s">
         <v>190</v>
       </c>
-      <c r="K28" t="s">
-        <v>192</v>
-      </c>
       <c r="L28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2225,19 +2229,19 @@
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2266,16 +2270,16 @@
         <v>185</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2304,16 +2308,16 @@
         <v>185</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2342,16 +2346,16 @@
         <v>186</v>
       </c>
       <c r="K32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2380,16 +2384,16 @@
         <v>185</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2415,19 +2419,19 @@
         <v>22</v>
       </c>
       <c r="J34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" t="s">
         <v>190</v>
       </c>
-      <c r="K34" t="s">
-        <v>192</v>
-      </c>
       <c r="L34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2456,16 +2460,16 @@
         <v>185</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2494,13 +2498,13 @@
         <v>185</v>
       </c>
       <c r="K36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
